--- a/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2024_전문대_예체능계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2024_전문대_예체능계열.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>15.6</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="3">
@@ -554,9 +554,7 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -672,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -710,9 +708,7 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -789,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>13.4</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="10">
@@ -828,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -906,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>40.9</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="13">
@@ -945,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1023,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1101,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1140,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1257,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>23.6</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>13.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -1374,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1413,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1569,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>20.8</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="32">
@@ -1686,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1725,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="35">
@@ -1803,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="36">
@@ -1842,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>12.4</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="37">
@@ -1920,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1959,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>28.1</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="40">
@@ -1998,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>6.9</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="41">
@@ -2154,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>6.2</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="45">
@@ -2193,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2232,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>9.5</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="47">
@@ -2310,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>8.300000000000001</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="49">
@@ -2387,9 +2383,7 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2466,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="I52" t="n">
-        <v>6.9</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="53">
@@ -2505,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="54">
@@ -2622,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="57">
@@ -2661,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2700,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="59">
@@ -2739,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="60">
@@ -2778,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="61">
@@ -2817,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2856,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>5.4</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="63">
@@ -2895,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -2973,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>11.3</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="66">
@@ -3051,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3129,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>14</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="70">
@@ -3168,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>18.2</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="71">
@@ -3207,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3246,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="73">
@@ -3324,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>11.4</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="75">
@@ -3363,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>9.199999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3519,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>14.5</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="80">
@@ -3558,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="81">
@@ -3597,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="n">
-        <v>5.8</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="82">
@@ -3636,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>21.5</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="83">
@@ -3675,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3713,9 +3707,7 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3753,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>10.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="86">
@@ -3792,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87">
@@ -3831,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="88">
@@ -3870,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>3.8</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="89">
@@ -3909,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="90">
@@ -3987,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>10.6</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="92">
@@ -4026,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="93">
@@ -4065,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>16.7</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="94">
@@ -4104,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>8.6</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="95">
@@ -4143,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>18.6</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="96">
@@ -4182,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="I96" t="n">
-        <v>19.3</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4221,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>19.1</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="98">
@@ -4260,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>29.4</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="99">
@@ -4299,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>26.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="100">
@@ -4338,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4377,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>21.1</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="102">
@@ -4416,7 +4408,7 @@
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="103">
@@ -4455,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="104">
@@ -4494,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>26.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4533,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4572,7 +4564,7 @@
         <v>14</v>
       </c>
       <c r="I106" t="n">
-        <v>19.9</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="107">
@@ -4611,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>12.4</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="108">
@@ -4689,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -4728,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>16.3</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="111">
@@ -4806,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -4884,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="115">
@@ -4923,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="116">
@@ -4962,7 +4954,7 @@
         <v>18</v>
       </c>
       <c r="I116" t="n">
-        <v>22.5</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="117">
@@ -5040,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="I118" t="n">
-        <v>4.3</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="119">
@@ -5079,7 +5071,7 @@
         <v>8</v>
       </c>
       <c r="I119" t="n">
-        <v>7.9</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="120">
@@ -5157,7 +5149,7 @@
         <v>14</v>
       </c>
       <c r="I121" t="n">
-        <v>10.9</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="122">
@@ -5235,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="I123" t="n">
-        <v>8.9</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="124">
@@ -5274,7 +5266,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>7.3</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="125">
@@ -5313,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5352,7 +5344,7 @@
         <v>17</v>
       </c>
       <c r="I126" t="n">
-        <v>8.5</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="127">
@@ -5430,7 +5422,7 @@
         <v>13</v>
       </c>
       <c r="I128" t="n">
-        <v>9.199999999999999</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="129">
@@ -5469,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="I129" t="n">
-        <v>5.8</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="130">
@@ -5508,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>6.5</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="131">
@@ -5547,7 +5539,7 @@
         <v>14</v>
       </c>
       <c r="I131" t="n">
-        <v>16</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="132">
@@ -5625,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="134">
@@ -5703,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="I135" t="n">
-        <v>3.9</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="136">
@@ -5781,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="I137" t="n">
-        <v>7.9</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="138">
@@ -5859,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="I139" t="n">
-        <v>3.7</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="140">
@@ -5937,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>16.2</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="142">
@@ -5976,7 +5968,7 @@
         <v>9</v>
       </c>
       <c r="I142" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="143">
@@ -6015,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="I143" t="n">
-        <v>15.6</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="144">
@@ -6093,7 +6085,7 @@
         <v>18</v>
       </c>
       <c r="I145" t="n">
-        <v>9.800000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="146">
@@ -6249,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>7.8</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="150">
@@ -6288,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -6366,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>10</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="153">
@@ -6405,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="154">
@@ -6522,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6561,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -6600,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>40</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="159">
@@ -6639,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="160">
@@ -6756,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>14.8</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="163">
@@ -6795,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="164">
@@ -6834,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="165">
@@ -6873,7 +6865,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>13.9</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="166">
@@ -6912,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>27.3</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="167">
@@ -6951,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>27.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6990,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="169">
@@ -7029,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>13.3</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="170">
@@ -7106,9 +7098,7 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7146,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>23.8</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="173">
@@ -7224,7 +7214,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="n">
-        <v>29.5</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="175">
@@ -7263,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>9.5</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="176">
@@ -7302,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>10.5</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="177">
@@ -7341,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7380,7 +7370,7 @@
         <v>10</v>
       </c>
       <c r="I178" t="n">
-        <v>6.5</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="179">
@@ -7419,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="180">
@@ -7458,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>17.6</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="181">
@@ -7497,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7536,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -7575,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -7614,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="I184" t="n">
-        <v>9.5</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="185">
@@ -7653,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7692,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="187">
@@ -7731,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7770,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="189">
@@ -7809,7 +7799,7 @@
         <v>5</v>
       </c>
       <c r="I189" t="n">
-        <v>25.8</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="190">
@@ -7848,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>44.4</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="191">
@@ -7887,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="I191" t="n">
-        <v>37.8</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="192">
@@ -7926,7 +7916,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>14.3</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="193">
@@ -8004,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -8043,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="196">
@@ -8121,7 +8111,7 @@
         <v>3</v>
       </c>
       <c r="I197" t="n">
-        <v>9.800000000000001</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="198">
@@ -8160,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="199">
@@ -8199,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>33.3</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="200">
@@ -8238,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="I200" t="n">
-        <v>20.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="201">
@@ -8277,7 +8267,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>27.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -8316,7 +8306,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -8355,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -8394,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>13</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="205">
@@ -8433,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8472,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="I206" t="n">
-        <v>13.8</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="207">
@@ -8550,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8589,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8628,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -8706,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8745,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="214">
@@ -8823,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="216">
@@ -8862,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -8900,8 +8890,10 @@
       <c r="H217" t="n">
         <v>2</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -8940,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="I218" t="n">
-        <v>23.7</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="219">
@@ -9018,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9057,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -9096,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="I222" t="n">
-        <v>38.9</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="223">
@@ -9135,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="224">
@@ -9174,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>66.7</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="225">
@@ -9291,7 +9283,7 @@
         <v>6</v>
       </c>
       <c r="I227" t="n">
-        <v>16.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="228">
@@ -9330,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>23.5</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="229">
@@ -9369,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>13.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="230">
@@ -9447,7 +9439,7 @@
         <v>7</v>
       </c>
       <c r="I231" t="n">
-        <v>17.7</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="232">
@@ -9486,7 +9478,7 @@
         <v>5</v>
       </c>
       <c r="I232" t="n">
-        <v>21.1</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="233">
@@ -9525,7 +9517,7 @@
         <v>7</v>
       </c>
       <c r="I233" t="n">
-        <v>12.7</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="234">
@@ -9564,7 +9556,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>7.9</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="235">
@@ -9603,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="n">
-        <v>14.3</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="236">
@@ -9642,7 +9634,7 @@
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>54.8</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="237">
@@ -9681,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="n">
-        <v>6.7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="238">
@@ -9720,7 +9712,7 @@
         <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>38.7</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="239">
@@ -9759,7 +9751,7 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>11.7</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="240">
@@ -9798,7 +9790,7 @@
         <v>7</v>
       </c>
       <c r="I240" t="n">
-        <v>21.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="241">
@@ -9837,7 +9829,7 @@
         <v>3</v>
       </c>
       <c r="I241" t="n">
-        <v>45.5</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="242">
@@ -9876,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -9915,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -9954,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>20.8</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="245">
@@ -9993,7 +9985,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="246">
@@ -10032,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="n">
-        <v>71.40000000000001</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="247">
@@ -10071,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -10110,7 +10102,7 @@
         <v>6</v>
       </c>
       <c r="I248" t="n">
-        <v>6.8</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="249">
@@ -10149,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -10188,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="n">
-        <v>10.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="251">
@@ -10227,7 +10219,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="252">
@@ -10266,7 +10258,7 @@
         <v>8</v>
       </c>
       <c r="I252" t="n">
-        <v>69.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="253">
@@ -10305,7 +10297,7 @@
         <v>5</v>
       </c>
       <c r="I253" t="n">
-        <v>10</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="254">
@@ -10344,7 +10336,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>24.2</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="255">
@@ -10383,7 +10375,7 @@
         <v>6</v>
       </c>
       <c r="I255" t="n">
-        <v>19.4</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="256">
@@ -10422,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -10500,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>40.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="259">
@@ -10539,7 +10531,7 @@
         <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>16.7</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="260">
@@ -10578,7 +10570,7 @@
         <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>28.6</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="261">
@@ -10617,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -10656,7 +10648,7 @@
         <v>3</v>
       </c>
       <c r="I262" t="n">
-        <v>13.9</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="263">
@@ -10695,7 +10687,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>16.4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="264">
@@ -10734,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>14.5</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="265">
@@ -10812,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -10851,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -10890,7 +10882,7 @@
         <v>6</v>
       </c>
       <c r="I268" t="n">
-        <v>15.2</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="269">
@@ -10929,7 +10921,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="n">
-        <v>25.8</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="270">
@@ -10968,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -11007,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="n">
-        <v>6.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="272">
@@ -11085,7 +11077,7 @@
         <v>4</v>
       </c>
       <c r="I273" t="n">
-        <v>22.9</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="274">
@@ -11124,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -11163,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -11202,7 +11194,7 @@
         <v>6</v>
       </c>
       <c r="I276" t="n">
-        <v>28.1</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="277">
@@ -11241,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>18.6</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="278">
@@ -11319,7 +11311,7 @@
         <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>15.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="280">
@@ -11358,7 +11350,7 @@
         <v>3</v>
       </c>
       <c r="I280" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="281">
@@ -11397,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -11436,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="n">
-        <v>6.3</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="283">
@@ -11475,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I283" t="n">
-        <v>66.7</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="284">
@@ -11514,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -11553,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286">
@@ -11592,7 +11584,7 @@
         <v>5</v>
       </c>
       <c r="I286" t="n">
-        <v>13.3</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="287">
@@ -11631,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="I287" t="n">
-        <v>9.9</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="288">
@@ -11669,9 +11661,7 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -11709,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="I289" t="n">
-        <v>7.3</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="290">
@@ -11748,7 +11738,7 @@
         <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>9.199999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="291">
@@ -11787,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="I291" t="n">
-        <v>10.7</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="292">
@@ -11826,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="n">
-        <v>11.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="293">
@@ -11943,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>2.6</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="296">
@@ -12060,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="299">
@@ -12099,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="I299" t="n">
-        <v>14.3</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="300">
@@ -12177,7 +12167,7 @@
         <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>15.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="302">
@@ -12216,7 +12206,7 @@
         <v>3</v>
       </c>
       <c r="I302" t="n">
-        <v>11.8</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="303">
@@ -12255,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>40</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="304">
@@ -12294,7 +12284,7 @@
         <v>3</v>
       </c>
       <c r="I304" t="n">
-        <v>14.3</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="305">
@@ -12333,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -12372,7 +12362,7 @@
         <v>3</v>
       </c>
       <c r="I306" t="n">
-        <v>8.5</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="307">
@@ -12411,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>7.7</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="308">
@@ -12528,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -12567,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="I311" t="n">
-        <v>17.1</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="312">
@@ -12606,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -12645,7 +12635,7 @@
         <v>6</v>
       </c>
       <c r="I313" t="n">
-        <v>21.1</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="314">
@@ -12684,7 +12674,7 @@
         <v>5</v>
       </c>
       <c r="I314" t="n">
-        <v>11.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="315">
@@ -12723,7 +12713,7 @@
         <v>4</v>
       </c>
       <c r="I315" t="n">
-        <v>11.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="316">
@@ -12762,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -12801,7 +12791,7 @@
         <v>13</v>
       </c>
       <c r="I317" t="n">
-        <v>12</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="318">
@@ -12840,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -12879,7 +12869,7 @@
         <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>7.1</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="320">
@@ -12918,7 +12908,7 @@
         <v>8</v>
       </c>
       <c r="I320" t="n">
-        <v>25.8</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="321">
@@ -12957,7 +12947,7 @@
         <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>12.7</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="322">
@@ -12996,7 +12986,7 @@
         <v>12</v>
       </c>
       <c r="I322" t="n">
-        <v>21.9</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="323">
@@ -13035,7 +13025,7 @@
         <v>7</v>
       </c>
       <c r="I323" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -13074,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="I324" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="325">
@@ -13113,7 +13103,7 @@
         <v>5</v>
       </c>
       <c r="I325" t="n">
-        <v>11.4</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="326">
@@ -13152,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -13191,7 +13181,7 @@
         <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>7.3</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="328">
@@ -13230,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="I328" t="n">
-        <v>11.4</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="329">
@@ -13269,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="I329" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="330">
@@ -13308,7 +13298,7 @@
         <v>5</v>
       </c>
       <c r="I330" t="n">
-        <v>12.3</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="331">
@@ -13386,7 +13376,7 @@
         <v>7</v>
       </c>
       <c r="I332" t="n">
-        <v>7.1</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="333">
@@ -13464,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="I334" t="n">
-        <v>4.8</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="335">
@@ -13503,7 +13493,7 @@
         <v>5</v>
       </c>
       <c r="I335" t="n">
-        <v>15.8</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="336">
@@ -13542,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -13581,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="I337" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
@@ -13620,7 +13610,7 @@
         <v>2</v>
       </c>
       <c r="I338" t="n">
-        <v>7</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="339">
@@ -13698,7 +13688,7 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>13.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341">
@@ -13737,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -13776,7 +13766,7 @@
         <v>16</v>
       </c>
       <c r="I342" t="n">
-        <v>14</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="343">
@@ -13854,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="I344" t="n">
-        <v>1.9</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="345">
@@ -13932,7 +13922,7 @@
         <v>8</v>
       </c>
       <c r="I346" t="n">
-        <v>7.5</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="347">
@@ -13971,7 +13961,7 @@
         <v>13</v>
       </c>
       <c r="I347" t="n">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="348">
@@ -14010,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="I348" t="n">
-        <v>4.8</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="349">
@@ -14049,7 +14039,7 @@
         <v>9</v>
       </c>
       <c r="I349" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="350">
@@ -14088,7 +14078,7 @@
         <v>4</v>
       </c>
       <c r="I350" t="n">
-        <v>6</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="351">
@@ -14127,7 +14117,7 @@
         <v>5</v>
       </c>
       <c r="I351" t="n">
-        <v>3.8</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="352">
@@ -14166,7 +14156,7 @@
         <v>3</v>
       </c>
       <c r="I352" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="353">
@@ -14244,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="I354" t="n">
-        <v>5.1</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="355">
@@ -14283,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="I355" t="n">
-        <v>2.4</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="356">
@@ -14322,7 +14312,7 @@
         <v>3</v>
       </c>
       <c r="I356" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="357">
@@ -14361,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -14400,7 +14390,7 @@
         <v>9</v>
       </c>
       <c r="I358" t="n">
-        <v>6.6</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="359">
@@ -14478,7 +14468,7 @@
         <v>11</v>
       </c>
       <c r="I360" t="n">
-        <v>8.199999999999999</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="361">
@@ -14517,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -14556,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -14595,7 +14585,7 @@
         <v>8</v>
       </c>
       <c r="I363" t="n">
-        <v>14</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="364">
@@ -14634,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="I364" t="n">
-        <v>22.2</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="365">
@@ -14673,7 +14663,7 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>6</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="366">
@@ -14712,7 +14702,7 @@
         <v>5</v>
       </c>
       <c r="I366" t="n">
-        <v>5.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="367">
@@ -14751,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="I367" t="n">
-        <v>2.9</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="368">
@@ -14790,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -14829,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -14907,7 +14897,7 @@
         <v>10</v>
       </c>
       <c r="I371" t="n">
-        <v>6.8</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="372">
@@ -14985,7 +14975,7 @@
         <v>20</v>
       </c>
       <c r="I373" t="n">
-        <v>7</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="374">
@@ -15024,7 +15014,7 @@
         <v>7</v>
       </c>
       <c r="I374" t="n">
-        <v>4.8</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="375">
@@ -15063,7 +15053,7 @@
         <v>13</v>
       </c>
       <c r="I375" t="n">
-        <v>5.3</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="376">
@@ -15180,7 +15170,7 @@
         <v>6</v>
       </c>
       <c r="I378" t="n">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="379">
@@ -15219,7 +15209,7 @@
         <v>2</v>
       </c>
       <c r="I379" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380">
@@ -15258,7 +15248,7 @@
         <v>16</v>
       </c>
       <c r="I380" t="n">
-        <v>7.3</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="381">
@@ -15297,7 +15287,7 @@
         <v>2</v>
       </c>
       <c r="I381" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="382">
@@ -15375,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -15453,7 +15443,7 @@
         <v>3</v>
       </c>
       <c r="I385" t="n">
-        <v>9.800000000000001</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="386">
@@ -15492,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="I386" t="n">
-        <v>12.5</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="387">
@@ -15570,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -15609,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="I389" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="390">
@@ -15687,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -15765,7 +15755,7 @@
         <v>7</v>
       </c>
       <c r="I393" t="n">
-        <v>7.6</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="394">
@@ -15804,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="I394" t="n">
-        <v>40.9</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="395">
@@ -15843,7 +15833,7 @@
         <v>6</v>
       </c>
       <c r="I395" t="n">
-        <v>25.6</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="396">
@@ -15882,7 +15872,7 @@
         <v>5</v>
       </c>
       <c r="I396" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="397">
@@ -15921,7 +15911,7 @@
         <v>5</v>
       </c>
       <c r="I397" t="n">
-        <v>10.2</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="398">
@@ -15960,7 +15950,7 @@
         <v>5</v>
       </c>
       <c r="I398" t="n">
-        <v>9.9</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="399">
@@ -15999,7 +15989,7 @@
         <v>6</v>
       </c>
       <c r="I399" t="n">
-        <v>25.4</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="400">
@@ -16038,7 +16028,7 @@
         <v>4</v>
       </c>
       <c r="I400" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
@@ -16077,7 +16067,7 @@
         <v>3</v>
       </c>
       <c r="I401" t="n">
-        <v>9.199999999999999</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="402">
@@ -16116,7 +16106,7 @@
         <v>3</v>
       </c>
       <c r="I402" t="n">
-        <v>15.2</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="403">
@@ -16155,7 +16145,7 @@
         <v>5</v>
       </c>
       <c r="I403" t="n">
-        <v>33.3</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="404">
@@ -16194,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -16233,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="I405" t="n">
-        <v>22.2</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="406">
@@ -16272,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -16311,7 +16301,7 @@
         <v>6</v>
       </c>
       <c r="I407" t="n">
-        <v>11.1</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="408">
@@ -16350,7 +16340,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>19.4</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="409">
@@ -16506,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -16545,7 +16535,7 @@
         <v>5</v>
       </c>
       <c r="I413" t="n">
-        <v>16.7</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="414">
@@ -16584,7 +16574,7 @@
         <v>2</v>
       </c>
       <c r="I414" t="n">
-        <v>20</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="415">
@@ -16623,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="I415" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="416">
@@ -16662,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -16701,7 +16691,7 @@
         <v>3</v>
       </c>
       <c r="I417" t="n">
-        <v>18.2</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="418">
@@ -16779,7 +16769,7 @@
         <v>11</v>
       </c>
       <c r="I419" t="n">
-        <v>12.8</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="420">
@@ -16818,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -16857,7 +16847,7 @@
         <v>9</v>
       </c>
       <c r="I421" t="n">
-        <v>9.6</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="422">
@@ -16896,7 +16886,7 @@
         <v>3</v>
       </c>
       <c r="I422" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="423">
@@ -16935,7 +16925,7 @@
         <v>2</v>
       </c>
       <c r="I423" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="424">
@@ -16974,7 +16964,7 @@
         <v>2</v>
       </c>
       <c r="I424" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425">
@@ -17013,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="I425" t="n">
-        <v>18.8</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="426">
@@ -17052,7 +17042,7 @@
         <v>7</v>
       </c>
       <c r="I426" t="n">
-        <v>10.1</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="427">
@@ -17130,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="I428" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="429">
@@ -17247,7 +17237,7 @@
         <v>8</v>
       </c>
       <c r="I431" t="n">
-        <v>8.300000000000001</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="432">
@@ -17286,7 +17276,7 @@
         <v>2</v>
       </c>
       <c r="I432" t="n">
-        <v>10.5</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="433">
@@ -17325,7 +17315,7 @@
         <v>11</v>
       </c>
       <c r="I433" t="n">
-        <v>4.9</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="434">
@@ -17364,7 +17354,7 @@
         <v>2</v>
       </c>
       <c r="I434" t="n">
-        <v>9.4</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="435">
@@ -17442,7 +17432,7 @@
         <v>18</v>
       </c>
       <c r="I436" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437">
@@ -17520,7 +17510,7 @@
         <v>9</v>
       </c>
       <c r="I438" t="n">
-        <v>7</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="439">
@@ -17559,7 +17549,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -17676,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="I442" t="n">
-        <v>11.8</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="443">
@@ -17793,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -17832,7 +17822,7 @@
         <v>11</v>
       </c>
       <c r="I446" t="n">
-        <v>10.8</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="447">
@@ -17871,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="I447" t="n">
-        <v>4.7</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="448">
@@ -17910,7 +17900,7 @@
         <v>15</v>
       </c>
       <c r="I448" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="449">
@@ -17988,7 +17978,7 @@
         <v>2</v>
       </c>
       <c r="I450" t="n">
-        <v>10.7</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="451">
@@ -18066,7 +18056,7 @@
         <v>12</v>
       </c>
       <c r="I452" t="n">
-        <v>8.199999999999999</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="453">
@@ -18105,7 +18095,7 @@
         <v>2</v>
       </c>
       <c r="I453" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="454">
@@ -18261,7 +18251,7 @@
         <v>1</v>
       </c>
       <c r="I457" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="458">
@@ -18300,7 +18290,7 @@
         <v>2</v>
       </c>
       <c r="I458" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="459">
@@ -18378,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="I460" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="461">
@@ -18417,7 +18407,7 @@
         <v>11</v>
       </c>
       <c r="I461" t="n">
-        <v>42.1</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="462">
@@ -18495,7 +18485,7 @@
         <v>8</v>
       </c>
       <c r="I463" t="n">
-        <v>23.3</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="464">
@@ -18533,8 +18523,10 @@
       <c r="H464" t="n">
         <v>2</v>
       </c>
-      <c r="I464" t="n">
-        <v>0</v>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="465">
@@ -18572,8 +18564,10 @@
       <c r="H465" t="n">
         <v>2</v>
       </c>
-      <c r="I465" t="n">
-        <v>0</v>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="466">
@@ -18611,8 +18605,10 @@
       <c r="H466" t="n">
         <v>3</v>
       </c>
-      <c r="I466" t="n">
-        <v>0</v>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -18650,8 +18646,10 @@
       <c r="H467" t="n">
         <v>4</v>
       </c>
-      <c r="I467" t="n">
-        <v>0</v>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="468">
@@ -18689,8 +18687,10 @@
       <c r="H468" t="n">
         <v>6</v>
       </c>
-      <c r="I468" t="n">
-        <v>0</v>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -18728,8 +18728,10 @@
       <c r="H469" t="n">
         <v>4</v>
       </c>
-      <c r="I469" t="n">
-        <v>0</v>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -18767,8 +18769,10 @@
       <c r="H470" t="n">
         <v>1</v>
       </c>
-      <c r="I470" t="n">
-        <v>0</v>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="471">
@@ -18807,7 +18811,7 @@
         <v>27</v>
       </c>
       <c r="I471" t="n">
-        <v>23.3</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="472">
@@ -18885,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="I473" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="474">
@@ -18924,7 +18928,7 @@
         <v>4</v>
       </c>
       <c r="I474" t="n">
-        <v>4.4</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="475">
@@ -18963,7 +18967,7 @@
         <v>5</v>
       </c>
       <c r="I475" t="n">
-        <v>9.300000000000001</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="476">
@@ -19002,7 +19006,7 @@
         <v>1</v>
       </c>
       <c r="I476" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="477">
@@ -19080,7 +19084,7 @@
         <v>3</v>
       </c>
       <c r="I478" t="n">
-        <v>11</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="479">
@@ -19119,7 +19123,7 @@
         <v>9</v>
       </c>
       <c r="I479" t="n">
-        <v>11.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="480">
@@ -19158,7 +19162,7 @@
         <v>8</v>
       </c>
       <c r="I480" t="n">
-        <v>11</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="481">
@@ -19197,7 +19201,7 @@
         <v>26</v>
       </c>
       <c r="I481" t="n">
-        <v>14.8</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="482">
@@ -19314,7 +19318,7 @@
         <v>2</v>
       </c>
       <c r="I484" t="n">
-        <v>9.6</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="485">
@@ -19353,7 +19357,7 @@
         <v>2</v>
       </c>
       <c r="I485" t="n">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="486">
@@ -19392,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="I486" t="n">
-        <v>12.2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="487">
@@ -19431,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="I487" t="n">
-        <v>25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="488">
@@ -19470,7 +19474,7 @@
         <v>8</v>
       </c>
       <c r="I488" t="n">
-        <v>44.2</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="489">
@@ -19509,7 +19513,7 @@
         <v>1</v>
       </c>
       <c r="I489" t="n">
-        <v>42.9</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="490">
@@ -19548,7 +19552,7 @@
         <v>7</v>
       </c>
       <c r="I490" t="n">
-        <v>25</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="491">
@@ -19587,7 +19591,7 @@
         <v>7</v>
       </c>
       <c r="I491" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="492">
@@ -19626,7 +19630,7 @@
         <v>67</v>
       </c>
       <c r="I492" t="n">
-        <v>17</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="493">
@@ -19665,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -19704,7 +19708,7 @@
         <v>5</v>
       </c>
       <c r="I494" t="n">
-        <v>23.2</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="495">
@@ -19743,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -19860,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="I498" t="n">
-        <v>8.5</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="499">
@@ -19899,7 +19903,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -19938,7 +19942,7 @@
         <v>6</v>
       </c>
       <c r="I500" t="n">
-        <v>50</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="501">
@@ -19977,7 +19981,7 @@
         <v>3</v>
       </c>
       <c r="I501" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502">
@@ -20016,7 +20020,7 @@
         <v>2</v>
       </c>
       <c r="I502" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503">
@@ -20055,7 +20059,7 @@
         <v>2</v>
       </c>
       <c r="I503" t="n">
-        <v>21.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="504">
@@ -20133,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="I505" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="506">
@@ -20172,7 +20176,7 @@
         <v>2</v>
       </c>
       <c r="I506" t="n">
-        <v>18.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="507">
@@ -20211,7 +20215,7 @@
         <v>9</v>
       </c>
       <c r="I507" t="n">
-        <v>38.8</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="508">
@@ -20289,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -20328,7 +20332,7 @@
         <v>4</v>
       </c>
       <c r="I510" t="n">
-        <v>9.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="511">
@@ -20367,7 +20371,7 @@
         <v>2</v>
       </c>
       <c r="I511" t="n">
-        <v>11.5</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="512">
@@ -20406,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -20445,7 +20449,7 @@
         <v>4</v>
       </c>
       <c r="I513" t="n">
-        <v>29.6</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="514">
@@ -20484,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -20523,7 +20527,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -20562,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -20679,7 +20683,7 @@
         <v>5</v>
       </c>
       <c r="I519" t="n">
-        <v>83.3</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="520">
@@ -20718,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -20834,9 +20838,7 @@
       <c r="H523" t="n">
         <v>0</v>
       </c>
-      <c r="I523" t="n">
-        <v>0</v>
-      </c>
+      <c r="I523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -20874,7 +20876,7 @@
         <v>3</v>
       </c>
       <c r="I524" t="n">
-        <v>38.9</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="525">
@@ -20913,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -20991,7 +20993,7 @@
         <v>5</v>
       </c>
       <c r="I527" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="528">
@@ -21069,7 +21071,7 @@
         <v>2</v>
       </c>
       <c r="I529" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="530">
@@ -21108,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="I530" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="531">
@@ -21186,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="I532" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="533">
@@ -21225,7 +21227,7 @@
         <v>17</v>
       </c>
       <c r="I533" t="n">
-        <v>13</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="534">
@@ -21302,9 +21304,7 @@
       <c r="H535" t="n">
         <v>0</v>
       </c>
-      <c r="I535" t="n">
-        <v>0</v>
-      </c>
+      <c r="I535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -21420,7 +21420,7 @@
         <v>1</v>
       </c>
       <c r="I538" t="n">
-        <v>13.3</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="539">
@@ -21498,7 +21498,7 @@
         <v>5</v>
       </c>
       <c r="I540" t="n">
-        <v>14.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="541">
@@ -21537,7 +21537,7 @@
         <v>3</v>
       </c>
       <c r="I541" t="n">
-        <v>18.5</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="542">
@@ -21576,7 +21576,7 @@
         <v>1</v>
       </c>
       <c r="I542" t="n">
-        <v>22.2</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="543">
@@ -21615,7 +21615,7 @@
         <v>1</v>
       </c>
       <c r="I543" t="n">
-        <v>8.6</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="544">
@@ -21654,7 +21654,7 @@
         <v>1</v>
       </c>
       <c r="I544" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="545">
@@ -21693,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -21732,7 +21732,7 @@
         <v>4</v>
       </c>
       <c r="I546" t="n">
-        <v>8.6</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="547">
@@ -21771,7 +21771,7 @@
         <v>8</v>
       </c>
       <c r="I547" t="n">
-        <v>14.4</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="548">
@@ -21849,7 +21849,7 @@
         <v>1</v>
       </c>
       <c r="I549" t="n">
-        <v>25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="550">
@@ -21888,7 +21888,7 @@
         <v>12</v>
       </c>
       <c r="I550" t="n">
-        <v>21.2</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="551">
@@ -21927,7 +21927,7 @@
         <v>4</v>
       </c>
       <c r="I551" t="n">
-        <v>22.4</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="552">
@@ -21966,7 +21966,7 @@
         <v>1</v>
       </c>
       <c r="I552" t="n">
-        <v>13.8</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="553">
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="n">
-        <v>87.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -22044,7 +22044,7 @@
         <v>11</v>
       </c>
       <c r="I554" t="n">
-        <v>18.5</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="555">
@@ -22083,7 +22083,7 @@
         <v>3</v>
       </c>
       <c r="I555" t="n">
-        <v>11.1</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="556">
@@ -22122,7 +22122,7 @@
         <v>1</v>
       </c>
       <c r="I556" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="557">
@@ -22161,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="I557" t="n">
-        <v>233.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="558">
@@ -22239,7 +22239,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -22278,7 +22278,7 @@
         <v>1</v>
       </c>
       <c r="I560" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="561">
@@ -22317,7 +22317,7 @@
         <v>9</v>
       </c>
       <c r="I561" t="n">
-        <v>29.1</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="562">
@@ -22395,7 +22395,7 @@
         <v>3</v>
       </c>
       <c r="I563" t="n">
-        <v>30.8</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="564">
@@ -22434,7 +22434,7 @@
         <v>1</v>
       </c>
       <c r="I564" t="n">
-        <v>28.6</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="565">
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -22551,7 +22551,7 @@
         <v>3</v>
       </c>
       <c r="I567" t="n">
-        <v>17.4</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="568">
@@ -22590,7 +22590,7 @@
         <v>1</v>
       </c>
       <c r="I568" t="n">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="569">
@@ -22629,7 +22629,7 @@
         <v>8</v>
       </c>
       <c r="I569" t="n">
-        <v>22.9</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="570">
@@ -22668,7 +22668,7 @@
         <v>5</v>
       </c>
       <c r="I570" t="n">
-        <v>32.7</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="571">
@@ -22707,7 +22707,7 @@
         <v>7</v>
       </c>
       <c r="I571" t="n">
-        <v>31.8</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="572">
@@ -22746,7 +22746,7 @@
         <v>2</v>
       </c>
       <c r="I572" t="n">
-        <v>13.3</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="573">
@@ -22784,9 +22784,7 @@
       <c r="H573" t="n">
         <v>0</v>
       </c>
-      <c r="I573" t="n">
-        <v>0</v>
-      </c>
+      <c r="I573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -22863,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -22902,7 +22900,7 @@
         <v>3</v>
       </c>
       <c r="I576" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="577">
@@ -22980,7 +22978,7 @@
         <v>5</v>
       </c>
       <c r="I578" t="n">
-        <v>7</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="579">
@@ -23019,7 +23017,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -23097,7 +23095,7 @@
         <v>4</v>
       </c>
       <c r="I581" t="n">
-        <v>18.2</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="582">
@@ -23136,7 +23134,7 @@
         <v>1</v>
       </c>
       <c r="I582" t="n">
-        <v>2.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="583">
@@ -23175,7 +23173,7 @@
         <v>2</v>
       </c>
       <c r="I583" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="584">
@@ -23214,7 +23212,7 @@
         <v>1</v>
       </c>
       <c r="I584" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="585">
@@ -23292,7 +23290,7 @@
         <v>14</v>
       </c>
       <c r="I586" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="587">
@@ -23331,7 +23329,7 @@
         <v>2</v>
       </c>
       <c r="I587" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="588">
@@ -23370,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -23448,7 +23446,7 @@
         <v>1</v>
       </c>
       <c r="I590" t="n">
-        <v>16.7</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="591">
@@ -23604,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -23682,7 +23680,7 @@
         <v>1</v>
       </c>
       <c r="I596" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="597">
@@ -23721,7 +23719,7 @@
         <v>1</v>
       </c>
       <c r="I597" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="598">
@@ -23799,7 +23797,7 @@
         <v>3</v>
       </c>
       <c r="I599" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="600">
@@ -23838,7 +23836,7 @@
         <v>2</v>
       </c>
       <c r="I600" t="n">
-        <v>1.6</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="601">
@@ -23877,7 +23875,7 @@
         <v>5</v>
       </c>
       <c r="I601" t="n">
-        <v>6.6</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="602">
@@ -23916,7 +23914,7 @@
         <v>3</v>
       </c>
       <c r="I602" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="603">
@@ -23955,7 +23953,7 @@
         <v>2</v>
       </c>
       <c r="I603" t="n">
-        <v>1.7</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="604">
@@ -23994,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -24033,7 +24031,7 @@
         <v>1</v>
       </c>
       <c r="I605" t="n">
-        <v>1.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="606">
@@ -24072,7 +24070,7 @@
         <v>1</v>
       </c>
       <c r="I606" t="n">
-        <v>1.9</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="607">
@@ -24111,7 +24109,7 @@
         <v>8</v>
       </c>
       <c r="I607" t="n">
-        <v>4.4</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="608">
@@ -24189,7 +24187,7 @@
         <v>1</v>
       </c>
       <c r="I609" t="n">
-        <v>2.9</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="610">
@@ -24228,7 +24226,7 @@
         <v>3</v>
       </c>
       <c r="I610" t="n">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="611">
@@ -24267,7 +24265,7 @@
         <v>3</v>
       </c>
       <c r="I611" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="612">
@@ -24306,7 +24304,7 @@
         <v>1</v>
       </c>
       <c r="I612" t="n">
-        <v>1.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="613">
@@ -24345,7 +24343,7 @@
         <v>1</v>
       </c>
       <c r="I613" t="n">
-        <v>3.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="614">
@@ -24384,7 +24382,7 @@
         <v>4</v>
       </c>
       <c r="I614" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="615">
@@ -24423,7 +24421,7 @@
         <v>7</v>
       </c>
       <c r="I615" t="n">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="616">
@@ -24462,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="I616" t="n">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="617">
@@ -24501,7 +24499,7 @@
         <v>1</v>
       </c>
       <c r="I617" t="n">
-        <v>20</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="618">
@@ -24540,7 +24538,7 @@
         <v>5</v>
       </c>
       <c r="I618" t="n">
-        <v>10.7</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="619">
@@ -24579,7 +24577,7 @@
         <v>2</v>
       </c>
       <c r="I619" t="n">
-        <v>7.9</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="620">
@@ -24618,7 +24616,7 @@
         <v>2</v>
       </c>
       <c r="I620" t="n">
-        <v>11.1</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="621">
@@ -24657,7 +24655,7 @@
         <v>21</v>
       </c>
       <c r="I621" t="n">
-        <v>13.5</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="622">
@@ -24696,7 +24694,7 @@
         <v>1</v>
       </c>
       <c r="I622" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="623">
@@ -24735,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -24774,7 +24772,7 @@
         <v>9</v>
       </c>
       <c r="I624" t="n">
-        <v>9.6</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="625">
@@ -24852,7 +24850,7 @@
         <v>2</v>
       </c>
       <c r="I626" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="627">
@@ -24891,7 +24889,7 @@
         <v>12</v>
       </c>
       <c r="I627" t="n">
-        <v>6.7</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="628">
@@ -25008,7 +25006,7 @@
         <v>8</v>
       </c>
       <c r="I630" t="n">
-        <v>21.4</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="631">
@@ -25047,7 +25045,7 @@
         <v>5</v>
       </c>
       <c r="I631" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="632">
@@ -25125,7 +25123,7 @@
         <v>2</v>
       </c>
       <c r="I633" t="n">
-        <v>28.6</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="634">
@@ -25242,7 +25240,7 @@
         <v>27</v>
       </c>
       <c r="I636" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="637">
@@ -25281,7 +25279,7 @@
         <v>3</v>
       </c>
       <c r="I637" t="n">
-        <v>12.5</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="638">
@@ -25320,7 +25318,7 @@
         <v>6</v>
       </c>
       <c r="I638" t="n">
-        <v>7.6</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="639">
@@ -25632,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="n">
-        <v>25.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -25671,7 +25669,7 @@
         <v>5</v>
       </c>
       <c r="I647" t="n">
-        <v>40.7</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="648">
@@ -25748,8 +25746,10 @@
       <c r="H649" t="n">
         <v>2</v>
       </c>
-      <c r="I649" t="n">
-        <v>0</v>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="650">
@@ -25787,9 +25787,7 @@
       <c r="H650" t="n">
         <v>0</v>
       </c>
-      <c r="I650" t="n">
-        <v>0</v>
-      </c>
+      <c r="I650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -25826,9 +25824,7 @@
       <c r="H651" t="n">
         <v>0</v>
       </c>
-      <c r="I651" t="n">
-        <v>0</v>
-      </c>
+      <c r="I651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -25866,7 +25862,7 @@
         <v>2</v>
       </c>
       <c r="I652" t="n">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="653">
@@ -25905,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -25944,7 +25940,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -25983,7 +25979,7 @@
         <v>1</v>
       </c>
       <c r="I655" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="656">
@@ -26022,7 +26018,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -26061,7 +26057,7 @@
         <v>3</v>
       </c>
       <c r="I657" t="n">
-        <v>31.6</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="658">
@@ -26100,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -26139,7 +26135,7 @@
         <v>1</v>
       </c>
       <c r="I659" t="n">
-        <v>12.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="660">
@@ -26178,7 +26174,7 @@
         <v>6</v>
       </c>
       <c r="I660" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="661">
@@ -26217,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="I661" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="662">
@@ -26256,7 +26252,7 @@
         <v>1</v>
       </c>
       <c r="I662" t="n">
-        <v>15.7</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="663">
@@ -26334,7 +26330,7 @@
         <v>2</v>
       </c>
       <c r="I664" t="n">
-        <v>10.7</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="665">
@@ -26412,7 +26408,7 @@
         <v>6</v>
       </c>
       <c r="I666" t="n">
-        <v>22.9</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="667">
@@ -26451,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="n">
-        <v>22.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -26490,7 +26486,7 @@
         <v>1</v>
       </c>
       <c r="I668" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="669">
@@ -26607,7 +26603,7 @@
         <v>2</v>
       </c>
       <c r="I671" t="n">
-        <v>5.7</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="672">
@@ -26685,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="I673" t="n">
-        <v>21.4</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="674">
@@ -26724,7 +26720,7 @@
         <v>9</v>
       </c>
       <c r="I674" t="n">
-        <v>20</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="675">
@@ -26763,7 +26759,7 @@
         <v>2</v>
       </c>
       <c r="I675" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="676">
@@ -26802,7 +26798,7 @@
         <v>13</v>
       </c>
       <c r="I676" t="n">
-        <v>22.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="677">
@@ -26841,7 +26837,7 @@
         <v>18</v>
       </c>
       <c r="I677" t="n">
-        <v>29.9</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="678">
@@ -26880,7 +26876,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -26919,7 +26915,7 @@
         <v>1</v>
       </c>
       <c r="I679" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="680">
@@ -26958,7 +26954,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -26997,7 +26993,7 @@
         <v>5</v>
       </c>
       <c r="I681" t="n">
-        <v>9.1</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="682">
@@ -27036,7 +27032,7 @@
         <v>2</v>
       </c>
       <c r="I682" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="683">
@@ -27075,7 +27071,7 @@
         <v>2</v>
       </c>
       <c r="I683" t="n">
-        <v>4.8</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="684">
@@ -27114,7 +27110,7 @@
         <v>6</v>
       </c>
       <c r="I684" t="n">
-        <v>13.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="685">
@@ -27192,7 +27188,7 @@
         <v>8</v>
       </c>
       <c r="I686" t="n">
-        <v>6.8</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="687">
@@ -27270,7 +27266,7 @@
         <v>8</v>
       </c>
       <c r="I688" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="689">
@@ -27348,7 +27344,7 @@
         <v>17</v>
       </c>
       <c r="I690" t="n">
-        <v>22</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="691">
@@ -27387,7 +27383,7 @@
         <v>13</v>
       </c>
       <c r="I691" t="n">
-        <v>15.4</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="692">
@@ -27426,7 +27422,7 @@
         <v>8</v>
       </c>
       <c r="I692" t="n">
-        <v>14.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="693">
@@ -27465,7 +27461,7 @@
         <v>14</v>
       </c>
       <c r="I693" t="n">
-        <v>14.3</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="694">
@@ -27504,7 +27500,7 @@
         <v>2</v>
       </c>
       <c r="I694" t="n">
-        <v>16.7</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="695">
@@ -27582,7 +27578,7 @@
         <v>1</v>
       </c>
       <c r="I696" t="n">
-        <v>7.7</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="697">
@@ -27621,7 +27617,7 @@
         <v>2</v>
       </c>
       <c r="I697" t="n">
-        <v>4.8</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="698">
@@ -27660,7 +27656,7 @@
         <v>1</v>
       </c>
       <c r="I698" t="n">
-        <v>7.1</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="699">
@@ -27738,7 +27734,7 @@
         <v>18</v>
       </c>
       <c r="I700" t="n">
-        <v>11.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701">
@@ -27777,7 +27773,7 @@
         <v>1</v>
       </c>
       <c r="I701" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="702">
@@ -27816,7 +27812,7 @@
         <v>7</v>
       </c>
       <c r="I702" t="n">
-        <v>18.9</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="703">
@@ -27855,7 +27851,7 @@
         <v>9</v>
       </c>
       <c r="I703" t="n">
-        <v>29.7</v>
+        <v>24.32</v>
       </c>
     </row>
     <row r="704">
@@ -27894,7 +27890,7 @@
         <v>17</v>
       </c>
       <c r="I704" t="n">
-        <v>10.4</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="705">
@@ -27933,7 +27929,7 @@
         <v>16</v>
       </c>
       <c r="I705" t="n">
-        <v>14.8</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="706">
@@ -27972,7 +27968,7 @@
         <v>25</v>
       </c>
       <c r="I706" t="n">
-        <v>12.5</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="707">
@@ -28011,7 +28007,7 @@
         <v>2</v>
       </c>
       <c r="I707" t="n">
-        <v>16.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="708">
@@ -28050,7 +28046,7 @@
         <v>4</v>
       </c>
       <c r="I708" t="n">
-        <v>12.2</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="709">
@@ -28089,7 +28085,7 @@
         <v>4</v>
       </c>
       <c r="I709" t="n">
-        <v>12.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="710">
@@ -28128,7 +28124,7 @@
         <v>30</v>
       </c>
       <c r="I710" t="n">
-        <v>12.8</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="711">
@@ -28167,7 +28163,7 @@
         <v>1</v>
       </c>
       <c r="I711" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="712">
@@ -28206,7 +28202,7 @@
         <v>1</v>
       </c>
       <c r="I712" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="713">
@@ -28245,7 +28241,7 @@
         <v>19</v>
       </c>
       <c r="I713" t="n">
-        <v>13</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="714">
@@ -28284,7 +28280,7 @@
         <v>5</v>
       </c>
       <c r="I714" t="n">
-        <v>8.1</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="715">
@@ -28323,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -28362,7 +28358,7 @@
         <v>6</v>
       </c>
       <c r="I716" t="n">
-        <v>26.9</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="717">
@@ -28401,7 +28397,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -28440,7 +28436,7 @@
         <v>4</v>
       </c>
       <c r="I718" t="n">
-        <v>15.1</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="719">
@@ -28479,7 +28475,7 @@
         <v>9</v>
       </c>
       <c r="I719" t="n">
-        <v>20.5</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="720">
@@ -28518,7 +28514,7 @@
         <v>2</v>
       </c>
       <c r="I720" t="n">
-        <v>17.6</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="721">
@@ -28557,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -28596,7 +28592,7 @@
         <v>4</v>
       </c>
       <c r="I722" t="n">
-        <v>9.6</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="723">
@@ -28635,7 +28631,7 @@
         <v>1</v>
       </c>
       <c r="I723" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="724">
@@ -28674,7 +28670,7 @@
         <v>4</v>
       </c>
       <c r="I724" t="n">
-        <v>14.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="725">
@@ -28713,7 +28709,7 @@
         <v>1</v>
       </c>
       <c r="I725" t="n">
-        <v>21.4</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="726">
@@ -28752,7 +28748,7 @@
         <v>4</v>
       </c>
       <c r="I726" t="n">
-        <v>26.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="727">
@@ -28791,7 +28787,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -28830,7 +28826,7 @@
         <v>5</v>
       </c>
       <c r="I728" t="n">
-        <v>23.1</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="729">
@@ -28869,7 +28865,7 @@
         <v>2</v>
       </c>
       <c r="I729" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -28908,7 +28904,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -28947,7 +28943,7 @@
         <v>11</v>
       </c>
       <c r="I731" t="n">
-        <v>18.8</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="732">
@@ -28986,7 +28982,7 @@
         <v>2</v>
       </c>
       <c r="I732" t="n">
-        <v>20</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="733">
@@ -29025,7 +29021,7 @@
         <v>1</v>
       </c>
       <c r="I733" t="n">
-        <v>14.3</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="734">
@@ -29064,7 +29060,7 @@
         <v>6</v>
       </c>
       <c r="I734" t="n">
-        <v>31.8</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="735">
@@ -29103,7 +29099,7 @@
         <v>4</v>
       </c>
       <c r="I735" t="n">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="736">
@@ -29142,7 +29138,7 @@
         <v>2</v>
       </c>
       <c r="I736" t="n">
-        <v>13.3</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="737">
@@ -29181,7 +29177,7 @@
         <v>1</v>
       </c>
       <c r="I737" t="n">
-        <v>5.9</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="738">
@@ -29220,7 +29216,7 @@
         <v>3</v>
       </c>
       <c r="I738" t="n">
-        <v>16.7</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="739">
@@ -29259,7 +29255,7 @@
         <v>1</v>
       </c>
       <c r="I739" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="740">
@@ -29298,7 +29294,7 @@
         <v>1</v>
       </c>
       <c r="I740" t="n">
-        <v>23.1</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="741">
@@ -29337,7 +29333,7 @@
         <v>2</v>
       </c>
       <c r="I741" t="n">
-        <v>19.4</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="742">
@@ -29376,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -29415,7 +29411,7 @@
         <v>3</v>
       </c>
       <c r="I743" t="n">
-        <v>18.5</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="744">
@@ -29454,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -29493,7 +29489,7 @@
         <v>5</v>
       </c>
       <c r="I745" t="n">
-        <v>7.2</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="746">
@@ -29532,7 +29528,7 @@
         <v>3</v>
       </c>
       <c r="I746" t="n">
-        <v>8.699999999999999</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="747">
@@ -29571,7 +29567,7 @@
         <v>2</v>
       </c>
       <c r="I747" t="n">
-        <v>22.2</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="748">
@@ -29610,7 +29606,7 @@
         <v>10</v>
       </c>
       <c r="I748" t="n">
-        <v>12.4</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="749">
@@ -29648,8 +29644,10 @@
       <c r="H749" t="n">
         <v>1</v>
       </c>
-      <c r="I749" t="n">
-        <v>0</v>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="750">
@@ -29688,7 +29686,7 @@
         <v>10</v>
       </c>
       <c r="I750" t="n">
-        <v>12.3</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="751">
@@ -29844,7 +29842,7 @@
         <v>1</v>
       </c>
       <c r="I754" t="n">
-        <v>18.2</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="755">
@@ -29883,7 +29881,7 @@
         <v>7</v>
       </c>
       <c r="I755" t="n">
-        <v>13.4</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="756">
@@ -29922,7 +29920,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -29961,7 +29959,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -30039,7 +30037,7 @@
         <v>2</v>
       </c>
       <c r="I759" t="n">
-        <v>25.5</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="760">
@@ -30117,7 +30115,7 @@
         <v>35</v>
       </c>
       <c r="I761" t="n">
-        <v>7.5</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="762">
@@ -30156,7 +30154,7 @@
         <v>1</v>
       </c>
       <c r="I762" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="763">
@@ -30234,7 +30232,7 @@
         <v>1</v>
       </c>
       <c r="I764" t="n">
-        <v>9.800000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="765">
@@ -30273,7 +30271,7 @@
         <v>9</v>
       </c>
       <c r="I765" t="n">
-        <v>8.9</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="766">
@@ -30312,7 +30310,7 @@
         <v>1</v>
       </c>
       <c r="I766" t="n">
-        <v>13.3</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="767">
@@ -30390,7 +30388,7 @@
         <v>1</v>
       </c>
       <c r="I768" t="n">
-        <v>10.6</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="769">
@@ -30429,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -30507,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -30546,7 +30544,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -30585,7 +30583,7 @@
         <v>7</v>
       </c>
       <c r="I773" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="774">
@@ -30624,7 +30622,7 @@
         <v>1</v>
       </c>
       <c r="I774" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="775">
@@ -30702,7 +30700,7 @@
         <v>6</v>
       </c>
       <c r="I776" t="n">
-        <v>12.2</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="777">
@@ -30741,7 +30739,7 @@
         <v>1</v>
       </c>
       <c r="I777" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="778">
@@ -30819,7 +30817,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -30858,7 +30856,7 @@
         <v>5</v>
       </c>
       <c r="I780" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="781">
@@ -30897,7 +30895,7 @@
         <v>1</v>
       </c>
       <c r="I781" t="n">
-        <v>9.699999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="782">
@@ -30936,7 +30934,7 @@
         <v>3</v>
       </c>
       <c r="I782" t="n">
-        <v>16.1</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="783">
@@ -30975,7 +30973,7 @@
         <v>1</v>
       </c>
       <c r="I783" t="n">
-        <v>29.4</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="784">
@@ -31014,7 +31012,7 @@
         <v>5</v>
       </c>
       <c r="I784" t="n">
-        <v>18.3</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="785">
@@ -31053,7 +31051,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -31092,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -31131,7 +31129,7 @@
         <v>5</v>
       </c>
       <c r="I787" t="n">
-        <v>10.2</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="788">
@@ -31169,8 +31167,10 @@
       <c r="H788" t="n">
         <v>1</v>
       </c>
-      <c r="I788" t="n">
-        <v>0</v>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="789">
@@ -31287,7 +31287,7 @@
         <v>3</v>
       </c>
       <c r="I791" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="792">
@@ -31365,7 +31365,7 @@
         <v>1</v>
       </c>
       <c r="I793" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="794">
@@ -31404,7 +31404,7 @@
         <v>13</v>
       </c>
       <c r="I794" t="n">
-        <v>14.8</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="795">
@@ -31443,7 +31443,7 @@
         <v>6</v>
       </c>
       <c r="I795" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="796">
@@ -31482,7 +31482,7 @@
         <v>3</v>
       </c>
       <c r="I796" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="797">
@@ -31521,7 +31521,7 @@
         <v>9</v>
       </c>
       <c r="I797" t="n">
-        <v>9.800000000000001</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="798">
@@ -31560,7 +31560,7 @@
         <v>1</v>
       </c>
       <c r="I798" t="n">
-        <v>1.8</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="799">
@@ -31638,7 +31638,7 @@
         <v>7</v>
       </c>
       <c r="I800" t="n">
-        <v>18.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="801">
@@ -31677,7 +31677,7 @@
         <v>19</v>
       </c>
       <c r="I801" t="n">
-        <v>6.7</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="802">
@@ -31755,7 +31755,7 @@
         <v>1</v>
       </c>
       <c r="I803" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="804">
@@ -31794,7 +31794,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -31833,7 +31833,7 @@
         <v>3</v>
       </c>
       <c r="I805" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="806">
@@ -31872,7 +31872,7 @@
         <v>9</v>
       </c>
       <c r="I806" t="n">
-        <v>12.5</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="807">
@@ -31950,7 +31950,7 @@
         <v>1</v>
       </c>
       <c r="I808" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="809">
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -32028,7 +32028,7 @@
         <v>7</v>
       </c>
       <c r="I810" t="n">
-        <v>12.2</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="811">
@@ -32066,8 +32066,10 @@
       <c r="H811" t="n">
         <v>1</v>
       </c>
-      <c r="I811" t="n">
-        <v>0</v>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="812">
@@ -32105,8 +32107,10 @@
       <c r="H812" t="n">
         <v>1</v>
       </c>
-      <c r="I812" t="n">
-        <v>0</v>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="813">
@@ -32145,7 +32149,7 @@
         <v>2</v>
       </c>
       <c r="I813" t="n">
-        <v>17.6</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="814">
@@ -32223,7 +32227,7 @@
         <v>4</v>
       </c>
       <c r="I815" t="n">
-        <v>52.6</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="816">
@@ -32262,7 +32266,7 @@
         <v>1</v>
       </c>
       <c r="I816" t="n">
-        <v>8.300000000000001</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="817">
@@ -32301,7 +32305,7 @@
         <v>17</v>
       </c>
       <c r="I817" t="n">
-        <v>12.6</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="818">
@@ -32340,7 +32344,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -32418,7 +32422,7 @@
         <v>3</v>
       </c>
       <c r="I820" t="n">
-        <v>5.4</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="821">
@@ -32457,7 +32461,7 @@
         <v>2</v>
       </c>
       <c r="I821" t="n">
-        <v>14.7</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="822">
@@ -32496,7 +32500,7 @@
         <v>11</v>
       </c>
       <c r="I822" t="n">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="823">
@@ -32574,7 +32578,7 @@
         <v>5</v>
       </c>
       <c r="I824" t="n">
-        <v>15</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="825">
@@ -32652,7 +32656,7 @@
         <v>4</v>
       </c>
       <c r="I826" t="n">
-        <v>14.8</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="827">
@@ -32691,7 +32695,7 @@
         <v>10</v>
       </c>
       <c r="I827" t="n">
-        <v>18.2</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="828">
@@ -32730,7 +32734,7 @@
         <v>10</v>
       </c>
       <c r="I828" t="n">
-        <v>20.6</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="829">
@@ -32769,7 +32773,7 @@
         <v>5</v>
       </c>
       <c r="I829" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830">
@@ -32847,7 +32851,7 @@
         <v>4</v>
       </c>
       <c r="I831" t="n">
-        <v>7.4</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="832">
@@ -32886,7 +32890,7 @@
         <v>5</v>
       </c>
       <c r="I832" t="n">
-        <v>13</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="833">
@@ -32925,7 +32929,7 @@
         <v>20</v>
       </c>
       <c r="I833" t="n">
-        <v>13.6</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="834">
@@ -32964,7 +32968,7 @@
         <v>9</v>
       </c>
       <c r="I834" t="n">
-        <v>14.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835">
@@ -33003,7 +33007,7 @@
         <v>4</v>
       </c>
       <c r="I835" t="n">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="836">
@@ -33042,7 +33046,7 @@
         <v>2</v>
       </c>
       <c r="I836" t="n">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="837">
@@ -33081,7 +33085,7 @@
         <v>7</v>
       </c>
       <c r="I837" t="n">
-        <v>9.300000000000001</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="838">
@@ -33120,7 +33124,7 @@
         <v>3</v>
       </c>
       <c r="I838" t="n">
-        <v>10.3</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="839">
@@ -33159,7 +33163,7 @@
         <v>2</v>
       </c>
       <c r="I839" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="840">
@@ -33237,7 +33241,7 @@
         <v>1</v>
       </c>
       <c r="I841" t="n">
-        <v>15.6</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="842">
@@ -33276,7 +33280,7 @@
         <v>4</v>
       </c>
       <c r="I842" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="843">
@@ -33315,7 +33319,7 @@
         <v>1</v>
       </c>
       <c r="I843" t="n">
-        <v>3.9</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="844">
@@ -33393,7 +33397,7 @@
         <v>3</v>
       </c>
       <c r="I845" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="846">
@@ -33432,7 +33436,7 @@
         <v>4</v>
       </c>
       <c r="I846" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="847">
@@ -33471,7 +33475,7 @@
         <v>6</v>
       </c>
       <c r="I847" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="848">
@@ -33510,7 +33514,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -33549,7 +33553,7 @@
         <v>10</v>
       </c>
       <c r="I849" t="n">
-        <v>8.199999999999999</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="850">
@@ -33588,7 +33592,7 @@
         <v>4</v>
       </c>
       <c r="I850" t="n">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="851">
@@ -33627,7 +33631,7 @@
         <v>2</v>
       </c>
       <c r="I851" t="n">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="852">
@@ -33666,7 +33670,7 @@
         <v>3</v>
       </c>
       <c r="I852" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="853">
@@ -33705,7 +33709,7 @@
         <v>3</v>
       </c>
       <c r="I853" t="n">
-        <v>6.9</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="854">
@@ -33744,7 +33748,7 @@
         <v>3</v>
       </c>
       <c r="I854" t="n">
-        <v>9.699999999999999</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="855">
@@ -33783,7 +33787,7 @@
         <v>16</v>
       </c>
       <c r="I855" t="n">
-        <v>14.3</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="856">
@@ -33822,7 +33826,7 @@
         <v>2</v>
       </c>
       <c r="I856" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="857">
@@ -33861,7 +33865,7 @@
         <v>1</v>
       </c>
       <c r="I857" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="858">
@@ -33900,7 +33904,7 @@
         <v>7</v>
       </c>
       <c r="I858" t="n">
-        <v>7.7</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="859">
@@ -33939,7 +33943,7 @@
         <v>4</v>
       </c>
       <c r="I859" t="n">
-        <v>14.6</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="860">
@@ -33978,7 +33982,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -34017,7 +34021,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -34056,7 +34060,7 @@
         <v>1</v>
       </c>
       <c r="I862" t="n">
-        <v>5.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="863">
@@ -34134,7 +34138,7 @@
         <v>11</v>
       </c>
       <c r="I864" t="n">
-        <v>11.8</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="865">
@@ -34211,9 +34215,7 @@
       <c r="H866" t="n">
         <v>0</v>
       </c>
-      <c r="I866" t="n">
-        <v>0</v>
-      </c>
+      <c r="I866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -34251,7 +34253,7 @@
         <v>7</v>
       </c>
       <c r="I867" t="n">
-        <v>7.9</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="868">
@@ -34328,8 +34330,10 @@
       <c r="H869" t="n">
         <v>1</v>
       </c>
-      <c r="I869" t="n">
-        <v>0</v>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="870">
@@ -34407,7 +34411,7 @@
         <v>6</v>
       </c>
       <c r="I871" t="n">
-        <v>8.5</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="872">
@@ -34485,7 +34489,7 @@
         <v>1</v>
       </c>
       <c r="I873" t="n">
-        <v>5.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="874">
@@ -34524,7 +34528,7 @@
         <v>3</v>
       </c>
       <c r="I874" t="n">
-        <v>12.8</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="875">
@@ -34562,9 +34566,7 @@
       <c r="H875" t="n">
         <v>0</v>
       </c>
-      <c r="I875" t="n">
-        <v>0</v>
-      </c>
+      <c r="I875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -34602,7 +34604,7 @@
         <v>13</v>
       </c>
       <c r="I876" t="n">
-        <v>19.3</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="877">
@@ -34641,7 +34643,7 @@
         <v>2</v>
       </c>
       <c r="I877" t="n">
-        <v>14.6</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="878">
@@ -34680,7 +34682,7 @@
         <v>4</v>
       </c>
       <c r="I878" t="n">
-        <v>10.9</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="879">
@@ -34719,7 +34721,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -34758,7 +34760,7 @@
         <v>17</v>
       </c>
       <c r="I880" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="881">
@@ -34797,7 +34799,7 @@
         <v>2</v>
       </c>
       <c r="I881" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="882">
@@ -34836,7 +34838,7 @@
         <v>2</v>
       </c>
       <c r="I882" t="n">
-        <v>4.5</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="883">
@@ -34875,7 +34877,7 @@
         <v>4</v>
       </c>
       <c r="I883" t="n">
-        <v>7.8</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="884">
@@ -34914,7 +34916,7 @@
         <v>9</v>
       </c>
       <c r="I884" t="n">
-        <v>6.2</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="885">
@@ -34992,7 +34994,7 @@
         <v>14</v>
       </c>
       <c r="I886" t="n">
-        <v>9.199999999999999</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="887">
@@ -35031,7 +35033,7 @@
         <v>2</v>
       </c>
       <c r="I887" t="n">
-        <v>8.6</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="888">
@@ -35070,7 +35072,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -35109,7 +35111,7 @@
         <v>6</v>
       </c>
       <c r="I889" t="n">
-        <v>8.800000000000001</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="890">
@@ -35148,7 +35150,7 @@
         <v>13</v>
       </c>
       <c r="I890" t="n">
-        <v>11.7</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="891">
@@ -35187,7 +35189,7 @@
         <v>2</v>
       </c>
       <c r="I891" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="892">
@@ -35226,7 +35228,7 @@
         <v>20</v>
       </c>
       <c r="I892" t="n">
-        <v>14.1</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="893">
@@ -35265,7 +35267,7 @@
         <v>9</v>
       </c>
       <c r="I893" t="n">
-        <v>6.9</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="894">
@@ -35303,8 +35305,10 @@
       <c r="H894" t="n">
         <v>4</v>
       </c>
-      <c r="I894" t="n">
-        <v>0</v>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="895">
@@ -35342,8 +35346,10 @@
       <c r="H895" t="n">
         <v>6</v>
       </c>
-      <c r="I895" t="n">
-        <v>0</v>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="896">
@@ -35381,8 +35387,10 @@
       <c r="H896" t="n">
         <v>9</v>
       </c>
-      <c r="I896" t="n">
-        <v>0</v>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="897">
@@ -35420,8 +35428,10 @@
       <c r="H897" t="n">
         <v>11</v>
       </c>
-      <c r="I897" t="n">
-        <v>0</v>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="898">
@@ -35460,7 +35470,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -35499,7 +35509,7 @@
         <v>1</v>
       </c>
       <c r="I899" t="n">
-        <v>7</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="900">
@@ -35538,7 +35548,7 @@
         <v>18</v>
       </c>
       <c r="I900" t="n">
-        <v>18.2</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="901">
@@ -35577,7 +35587,7 @@
         <v>1</v>
       </c>
       <c r="I901" t="n">
-        <v>12.5</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="902">
@@ -35616,7 +35626,7 @@
         <v>4</v>
       </c>
       <c r="I902" t="n">
-        <v>21.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="903">
@@ -35655,7 +35665,7 @@
         <v>6</v>
       </c>
       <c r="I903" t="n">
-        <v>18.1</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="904">
@@ -35694,7 +35704,7 @@
         <v>17</v>
       </c>
       <c r="I904" t="n">
-        <v>19.8</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="905">
@@ -35733,7 +35743,7 @@
         <v>1</v>
       </c>
       <c r="I905" t="n">
-        <v>17.4</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="906">
@@ -35772,7 +35782,7 @@
         <v>5</v>
       </c>
       <c r="I906" t="n">
-        <v>20.4</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="907">
@@ -35811,7 +35821,7 @@
         <v>4</v>
       </c>
       <c r="I907" t="n">
-        <v>15.4</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="908">
@@ -35850,7 +35860,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="n">
-        <v>133.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -35889,7 +35899,7 @@
         <v>4</v>
       </c>
       <c r="I909" t="n">
-        <v>11.1</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="910">
@@ -35928,7 +35938,7 @@
         <v>5</v>
       </c>
       <c r="I910" t="n">
-        <v>38.5</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="911">
@@ -35967,7 +35977,7 @@
         <v>4</v>
       </c>
       <c r="I911" t="n">
-        <v>20</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="912">
@@ -36006,7 +36016,7 @@
         <v>8</v>
       </c>
       <c r="I912" t="n">
-        <v>36.4</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="913">
@@ -36084,7 +36094,7 @@
         <v>10</v>
       </c>
       <c r="I914" t="n">
-        <v>8.6</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="915">
@@ -36123,7 +36133,7 @@
         <v>12</v>
       </c>
       <c r="I915" t="n">
-        <v>8.5</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="916">
@@ -36162,7 +36172,7 @@
         <v>5</v>
       </c>
       <c r="I916" t="n">
-        <v>9.5</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="917">
@@ -36201,7 +36211,7 @@
         <v>2</v>
       </c>
       <c r="I917" t="n">
-        <v>19.1</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="918">
@@ -36240,7 +36250,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -36279,7 +36289,7 @@
         <v>1</v>
       </c>
       <c r="I919" t="n">
-        <v>5.8</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="920">
@@ -36318,7 +36328,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -36357,7 +36367,7 @@
         <v>2</v>
       </c>
       <c r="I921" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="922">
@@ -36396,7 +36406,7 @@
         <v>2</v>
       </c>
       <c r="I922" t="n">
-        <v>20.7</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="923">
@@ -36435,7 +36445,7 @@
         <v>2</v>
       </c>
       <c r="I923" t="n">
-        <v>5.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="924">
@@ -36474,7 +36484,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -36513,7 +36523,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -36591,7 +36601,7 @@
         <v>4</v>
       </c>
       <c r="I927" t="n">
-        <v>14</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="928">
@@ -36630,7 +36640,7 @@
         <v>4</v>
       </c>
       <c r="I928" t="n">
-        <v>27.9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="929">
@@ -36669,7 +36679,7 @@
         <v>3</v>
       </c>
       <c r="I929" t="n">
-        <v>6.6</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="930">
@@ -36708,7 +36718,7 @@
         <v>1</v>
       </c>
       <c r="I930" t="n">
-        <v>21.1</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="931">
@@ -36747,7 +36757,7 @@
         <v>1</v>
       </c>
       <c r="I931" t="n">
-        <v>5.4</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="932">
@@ -36786,7 +36796,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -36825,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -36903,7 +36913,7 @@
         <v>2</v>
       </c>
       <c r="I935" t="n">
-        <v>12.8</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="936">
@@ -36942,7 +36952,7 @@
         <v>3</v>
       </c>
       <c r="I936" t="n">
-        <v>12.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="937">
@@ -36981,7 +36991,7 @@
         <v>6</v>
       </c>
       <c r="I937" t="n">
-        <v>13.5</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="938">
@@ -37019,9 +37029,7 @@
       <c r="H938" t="n">
         <v>0</v>
       </c>
-      <c r="I938" t="n">
-        <v>0</v>
-      </c>
+      <c r="I938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -37058,8 +37066,10 @@
       <c r="H939" t="n">
         <v>2</v>
       </c>
-      <c r="I939" t="n">
-        <v>0</v>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="940">
@@ -37097,8 +37107,10 @@
       <c r="H940" t="n">
         <v>1</v>
       </c>
-      <c r="I940" t="n">
-        <v>0</v>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="941">
@@ -37136,9 +37148,7 @@
       <c r="H941" t="n">
         <v>0</v>
       </c>
-      <c r="I941" t="n">
-        <v>0</v>
-      </c>
+      <c r="I941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -37176,7 +37186,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -37293,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -37332,7 +37342,7 @@
         <v>11</v>
       </c>
       <c r="I946" t="n">
-        <v>31.8</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="947">
@@ -37371,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948">
@@ -37410,7 +37420,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -37488,7 +37498,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -37527,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -37566,7 +37576,7 @@
         <v>3</v>
       </c>
       <c r="I952" t="n">
-        <v>3.4</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="953">
@@ -37605,7 +37615,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -37644,7 +37654,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -37683,7 +37693,7 @@
         <v>5</v>
       </c>
       <c r="I955" t="n">
-        <v>266.7</v>
+        <v>166.67</v>
       </c>
     </row>
     <row r="956">
@@ -37722,7 +37732,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -37761,7 +37771,7 @@
         <v>5</v>
       </c>
       <c r="I957" t="n">
-        <v>16.3</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="958">
@@ -37839,7 +37849,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -37878,7 +37888,7 @@
         <v>2</v>
       </c>
       <c r="I960" t="n">
-        <v>9.5</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="961">
@@ -37995,7 +38005,7 @@
         <v>3</v>
       </c>
       <c r="I963" t="n">
-        <v>9.300000000000001</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="964">
@@ -38034,7 +38044,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -38073,7 +38083,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -38112,7 +38122,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -38151,7 +38161,7 @@
         <v>5</v>
       </c>
       <c r="I967" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="968">
@@ -38190,7 +38200,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -38229,7 +38239,7 @@
         <v>1</v>
       </c>
       <c r="I969" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="970">
@@ -38307,7 +38317,7 @@
         <v>1</v>
       </c>
       <c r="I971" t="n">
-        <v>6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="972">
@@ -38463,7 +38473,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -38541,7 +38551,7 @@
         <v>8</v>
       </c>
       <c r="I977" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="978">
@@ -38580,7 +38590,7 @@
         <v>1</v>
       </c>
       <c r="I978" t="n">
-        <v>85.7</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="979">
@@ -38619,7 +38629,7 @@
         <v>1</v>
       </c>
       <c r="I979" t="n">
-        <v>28.6</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="980">
@@ -38658,7 +38668,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -38697,7 +38707,7 @@
         <v>3</v>
       </c>
       <c r="I981" t="n">
-        <v>9.800000000000001</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="982">
@@ -38736,7 +38746,7 @@
         <v>2</v>
       </c>
       <c r="I982" t="n">
-        <v>14.3</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="983">
@@ -38775,7 +38785,7 @@
         <v>4</v>
       </c>
       <c r="I983" t="n">
-        <v>39.5</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="984">
@@ -38814,7 +38824,7 @@
         <v>17</v>
       </c>
       <c r="I984" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="985">
@@ -38892,7 +38902,7 @@
         <v>9</v>
       </c>
       <c r="I986" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987">
@@ -38931,7 +38941,7 @@
         <v>5</v>
       </c>
       <c r="I987" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="988">
@@ -38970,7 +38980,7 @@
         <v>2</v>
       </c>
       <c r="I988" t="n">
-        <v>9.4</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="989">
@@ -39009,7 +39019,7 @@
         <v>10</v>
       </c>
       <c r="I989" t="n">
-        <v>9.1</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="990">
@@ -39048,7 +39058,7 @@
         <v>14</v>
       </c>
       <c r="I990" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="991">
@@ -39087,7 +39097,7 @@
         <v>1</v>
       </c>
       <c r="I991" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="992">
@@ -39126,7 +39136,7 @@
         <v>5</v>
       </c>
       <c r="I992" t="n">
-        <v>5.5</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="993">
@@ -39165,7 +39175,7 @@
         <v>2</v>
       </c>
       <c r="I993" t="n">
-        <v>10.5</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="994">
@@ -39204,7 +39214,7 @@
         <v>6</v>
       </c>
       <c r="I994" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="995">
@@ -39243,7 +39253,7 @@
         <v>13</v>
       </c>
       <c r="I995" t="n">
-        <v>2.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="996">
@@ -39282,7 +39292,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -39321,7 +39331,7 @@
         <v>4</v>
       </c>
       <c r="I997" t="n">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="998">
@@ -39399,7 +39409,7 @@
         <v>3</v>
       </c>
       <c r="I999" t="n">
-        <v>17.9</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="1000">
@@ -39477,7 +39487,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -39516,7 +39526,7 @@
         <v>1</v>
       </c>
       <c r="I1002" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="1003">
@@ -39555,7 +39565,7 @@
         <v>6</v>
       </c>
       <c r="I1003" t="n">
-        <v>14.1</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="1004">
@@ -39594,7 +39604,7 @@
         <v>1</v>
       </c>
       <c r="I1004" t="n">
-        <v>6.7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1005">
@@ -39633,7 +39643,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006">
@@ -39672,7 +39682,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -39750,7 +39760,7 @@
         <v>4</v>
       </c>
       <c r="I1008" t="n">
-        <v>8.6</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="1009">
@@ -39789,7 +39799,7 @@
         <v>1</v>
       </c>
       <c r="I1009" t="n">
-        <v>5.4</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="1010">
@@ -39867,7 +39877,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012">
@@ -39906,7 +39916,7 @@
         <v>1</v>
       </c>
       <c r="I1012" t="n">
-        <v>15</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="1013">
@@ -39945,7 +39955,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014">
@@ -40062,7 +40072,7 @@
         <v>2</v>
       </c>
       <c r="I1016" t="n">
-        <v>14.3</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="1017">
@@ -40101,7 +40111,7 @@
         <v>1</v>
       </c>
       <c r="I1017" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="1018">
@@ -40140,7 +40150,7 @@
         <v>5</v>
       </c>
       <c r="I1018" t="n">
-        <v>8.1</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="1019">
@@ -40179,7 +40189,7 @@
         <v>2</v>
       </c>
       <c r="I1019" t="n">
-        <v>25</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="1020">
@@ -40257,7 +40267,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -40296,7 +40306,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023">
@@ -40335,7 +40345,7 @@
         <v>3</v>
       </c>
       <c r="I1023" t="n">
-        <v>20.6</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="1024">
@@ -40374,7 +40384,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -40452,7 +40462,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027">
@@ -40491,7 +40501,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -40530,7 +40540,7 @@
         <v>1</v>
       </c>
       <c r="I1028" t="n">
-        <v>5.9</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="1029">
@@ -40569,7 +40579,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -40608,7 +40618,7 @@
         <v>1</v>
       </c>
       <c r="I1030" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1031">
@@ -40647,7 +40657,7 @@
         <v>11</v>
       </c>
       <c r="I1031" t="n">
-        <v>17.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="1032">
@@ -40686,7 +40696,7 @@
         <v>4</v>
       </c>
       <c r="I1032" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="1033">
@@ -40725,7 +40735,7 @@
         <v>5</v>
       </c>
       <c r="I1033" t="n">
-        <v>13.4</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="1034">
@@ -40803,7 +40813,7 @@
         <v>1</v>
       </c>
       <c r="I1035" t="n">
-        <v>10.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="1036">
@@ -40881,7 +40891,7 @@
         <v>3</v>
       </c>
       <c r="I1037" t="n">
-        <v>25</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="1038">
@@ -40959,7 +40969,7 @@
         <v>1</v>
       </c>
       <c r="I1039" t="n">
-        <v>17</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="1040">
@@ -41037,7 +41047,7 @@
         <v>2</v>
       </c>
       <c r="I1041" t="n">
-        <v>9.699999999999999</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="1042">
@@ -41115,7 +41125,7 @@
         <v>11</v>
       </c>
       <c r="I1043" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="1044">
@@ -41193,7 +41203,7 @@
         <v>8</v>
       </c>
       <c r="I1045" t="n">
-        <v>24.2</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="1046">
@@ -41232,7 +41242,7 @@
         <v>1</v>
       </c>
       <c r="I1046" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="1047">
@@ -41271,7 +41281,7 @@
         <v>7</v>
       </c>
       <c r="I1047" t="n">
-        <v>6.5</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="1048">
@@ -41310,7 +41320,7 @@
         <v>1</v>
       </c>
       <c r="I1048" t="n">
-        <v>27.3</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1049">
@@ -41349,7 +41359,7 @@
         <v>3</v>
       </c>
       <c r="I1049" t="n">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="1050">
@@ -41427,7 +41437,7 @@
         <v>4</v>
       </c>
       <c r="I1051" t="n">
-        <v>5.4</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="1052">
@@ -41466,7 +41476,7 @@
         <v>3</v>
       </c>
       <c r="I1052" t="n">
-        <v>14.3</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="1053">
@@ -41505,7 +41515,7 @@
         <v>2</v>
       </c>
       <c r="I1053" t="n">
-        <v>6.3</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="1054">
@@ -41544,7 +41554,7 @@
         <v>3</v>
       </c>
       <c r="I1054" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055">
@@ -41622,7 +41632,7 @@
         <v>6</v>
       </c>
       <c r="I1056" t="n">
-        <v>12.3</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="1057">
@@ -41661,7 +41671,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -41700,7 +41710,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059">
@@ -41739,7 +41749,7 @@
         <v>9</v>
       </c>
       <c r="I1059" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="1060">
@@ -41817,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="I1061" t="n">
-        <v>28.6</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="1062">
@@ -41855,9 +41865,7 @@
       <c r="H1062" t="n">
         <v>0</v>
       </c>
-      <c r="I1062" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
@@ -41895,7 +41903,7 @@
         <v>1</v>
       </c>
       <c r="I1063" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1064">
@@ -41934,7 +41942,7 @@
         <v>2</v>
       </c>
       <c r="I1064" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="1065">
@@ -41973,7 +41981,7 @@
         <v>4</v>
       </c>
       <c r="I1065" t="n">
-        <v>20.8</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="1066">
@@ -42012,7 +42020,7 @@
         <v>3</v>
       </c>
       <c r="I1066" t="n">
-        <v>18.4</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="1067">
@@ -42051,7 +42059,7 @@
         <v>8</v>
       </c>
       <c r="I1067" t="n">
-        <v>13.1</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="1068">
@@ -42129,7 +42137,7 @@
         <v>1</v>
       </c>
       <c r="I1069" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1070">
@@ -42207,7 +42215,7 @@
         <v>12</v>
       </c>
       <c r="I1071" t="n">
-        <v>6.9</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="1072">
@@ -42285,7 +42293,7 @@
         <v>3</v>
       </c>
       <c r="I1073" t="n">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="1074">
@@ -42324,7 +42332,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -42363,7 +42371,7 @@
         <v>15</v>
       </c>
       <c r="I1075" t="n">
-        <v>7.6</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="1076">
@@ -42441,7 +42449,7 @@
         <v>15</v>
       </c>
       <c r="I1077" t="n">
-        <v>5.9</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="1078">
@@ -42480,7 +42488,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079">
@@ -42558,7 +42566,7 @@
         <v>1</v>
       </c>
       <c r="I1080" t="n">
-        <v>9.1</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="1081">
@@ -42597,7 +42605,7 @@
         <v>17</v>
       </c>
       <c r="I1081" t="n">
-        <v>8.4</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="1082">
@@ -42675,7 +42683,7 @@
         <v>3</v>
       </c>
       <c r="I1083" t="n">
-        <v>35.5</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="1084">
@@ -42714,7 +42722,7 @@
         <v>1</v>
       </c>
       <c r="I1084" t="n">
-        <v>16.7</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="1085">
@@ -42753,7 +42761,7 @@
         <v>16</v>
       </c>
       <c r="I1085" t="n">
-        <v>7</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="1086">
@@ -42792,7 +42800,7 @@
         <v>1</v>
       </c>
       <c r="I1086" t="n">
-        <v>6.7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="1087">
@@ -42831,7 +42839,7 @@
         <v>17</v>
       </c>
       <c r="I1087" t="n">
-        <v>13.9</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="1088">
@@ -42870,7 +42878,7 @@
         <v>2</v>
       </c>
       <c r="I1088" t="n">
-        <v>5.3</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1089">
@@ -42909,7 +42917,7 @@
         <v>3</v>
       </c>
       <c r="I1089" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="1090">
@@ -42948,7 +42956,7 @@
         <v>10</v>
       </c>
       <c r="I1090" t="n">
-        <v>15</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="1091">
@@ -42987,7 +42995,7 @@
         <v>3</v>
       </c>
       <c r="I1091" t="n">
-        <v>14.8</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="1092">
@@ -43026,7 +43034,7 @@
         <v>1</v>
       </c>
       <c r="I1092" t="n">
-        <v>6.9</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="1093">
@@ -43065,7 +43073,7 @@
         <v>2</v>
       </c>
       <c r="I1093" t="n">
-        <v>7.7</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="1094">
@@ -43104,7 +43112,7 @@
         <v>4</v>
       </c>
       <c r="I1094" t="n">
-        <v>10.9</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="1095">
@@ -43142,8 +43150,10 @@
       <c r="H1095" t="n">
         <v>1</v>
       </c>
-      <c r="I1095" t="n">
-        <v>0</v>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1096">
@@ -43182,7 +43192,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -43220,9 +43230,7 @@
       <c r="H1097" t="n">
         <v>0</v>
       </c>
-      <c r="I1097" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1097" t="inlineStr"/>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
@@ -43299,7 +43307,7 @@
         <v>2</v>
       </c>
       <c r="I1099" t="n">
-        <v>6.8</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="1100">
@@ -43338,7 +43346,7 @@
         <v>5</v>
       </c>
       <c r="I1100" t="n">
-        <v>12.3</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="1101">
@@ -43377,7 +43385,7 @@
         <v>4</v>
       </c>
       <c r="I1101" t="n">
-        <v>35.3</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="1102">
@@ -43416,7 +43424,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -43455,7 +43463,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -43494,7 +43502,7 @@
         <v>6</v>
       </c>
       <c r="I1104" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="1105">
@@ -43533,7 +43541,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106">
@@ -43571,9 +43579,7 @@
       <c r="H1106" t="n">
         <v>0</v>
       </c>
-      <c r="I1106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1106" t="inlineStr"/>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
@@ -43611,7 +43617,7 @@
         <v>12</v>
       </c>
       <c r="I1107" t="n">
-        <v>7.1</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="1108">
@@ -43689,7 +43695,7 @@
         <v>13</v>
       </c>
       <c r="I1109" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="1110">
@@ -43728,7 +43734,7 @@
         <v>3</v>
       </c>
       <c r="I1110" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="1111">
@@ -43767,7 +43773,7 @@
         <v>15</v>
       </c>
       <c r="I1111" t="n">
-        <v>6.8</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="1112">
@@ -43845,7 +43851,7 @@
         <v>13</v>
       </c>
       <c r="I1113" t="n">
-        <v>14</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="1114">
@@ -43884,7 +43890,7 @@
         <v>2</v>
       </c>
       <c r="I1114" t="n">
-        <v>7.1</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1115">
@@ -43923,7 +43929,7 @@
         <v>16</v>
       </c>
       <c r="I1115" t="n">
-        <v>9.699999999999999</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="1116">
@@ -43962,7 +43968,7 @@
         <v>1</v>
       </c>
       <c r="I1116" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1117">
@@ -44001,7 +44007,7 @@
         <v>8</v>
       </c>
       <c r="I1117" t="n">
-        <v>6.6</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="1118">
@@ -44040,7 +44046,7 @@
         <v>13</v>
       </c>
       <c r="I1118" t="n">
-        <v>7.1</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="1119">
@@ -44118,7 +44124,7 @@
         <v>11</v>
       </c>
       <c r="I1120" t="n">
-        <v>6.3</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="1121">
@@ -44157,7 +44163,7 @@
         <v>11</v>
       </c>
       <c r="I1121" t="n">
-        <v>4.7</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="1122">
@@ -44196,7 +44202,7 @@
         <v>19</v>
       </c>
       <c r="I1122" t="n">
-        <v>9.5</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="1123">
@@ -44274,7 +44280,7 @@
         <v>13</v>
       </c>
       <c r="I1124" t="n">
-        <v>8</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="1125">
@@ -44313,7 +44319,7 @@
         <v>1</v>
       </c>
       <c r="I1125" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="1126">
@@ -44352,7 +44358,7 @@
         <v>1</v>
       </c>
       <c r="I1126" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="1127">
@@ -44430,7 +44436,7 @@
         <v>3</v>
       </c>
       <c r="I1128" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1129">
@@ -44508,7 +44514,7 @@
         <v>3</v>
       </c>
       <c r="I1130" t="n">
-        <v>21.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="1131">
@@ -44586,7 +44592,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133">
@@ -44625,7 +44631,7 @@
         <v>1</v>
       </c>
       <c r="I1133" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
